--- a/CIS655/CIS655.xlsx
+++ b/CIS655/CIS655.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Live 1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Week 1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Week 2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t xml:space="preserve">TRY TO FIND A PAPER ON MEMORY, DO NOT FOCUS ON CPU</t>
   </si>
@@ -252,6 +253,98 @@
   </si>
   <si>
     <t xml:space="preserve">Request Level: largely decoupled tasks specified by the programmer or the OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDP: thermal design power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sustained power consumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neither peak power (which can be 1.5x higher), nor average actual power consumed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power: engery per unit of time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 watt = 1 joule per second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est. Defect rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturing size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transistors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBM Power5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Niagra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMD Opteron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinational output is dependent only on current input</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sequential means the output depends on the current input as well as </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the previous inputs</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Flip-flop: made of two or more latches, so more expensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like a snapshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latch: depends on clock up or down, just push out what is “heard” at that moment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AV8 Pipeline: 5 stages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF: instruction fetch from memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID: Instruction decode and register read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX: execute operation or calculate address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEM: Access memory operand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WB: wrtie result back to register</t>
   </si>
 </sst>
 </file>
@@ -335,13 +428,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -367,9 +468,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>323280</xdr:colOff>
+      <xdr:colOff>322560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -382,8 +483,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7333920" y="6914520"/>
-          <a:ext cx="3657240" cy="2494800"/>
+          <a:off x="7320240" y="6914520"/>
+          <a:ext cx="3649680" cy="2494080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -404,9 +505,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540360</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -419,8 +520,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11391840" y="6791040"/>
-          <a:ext cx="5151240" cy="3295440"/>
+          <a:off x="11370240" y="6791040"/>
+          <a:ext cx="5141520" cy="3294720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -446,7 +547,7 @@
       <selection pane="topLeft" activeCell="I58" activeCellId="0" sqref="I58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
@@ -459,117 +560,117 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -579,12 +680,12 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -594,23 +695,23 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="L34" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="M34" s="0" t="n">
+      <c r="M34" s="2" t="n">
         <f aca="false">0.4/10</f>
         <v>0.04</v>
       </c>
-      <c r="N34" s="0" t="n">
+      <c r="N34" s="2" t="n">
         <f aca="false">SUM(L34:M34)</f>
         <v>0.64</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N35" s="0" t="n">
+      <c r="N35" s="2" t="n">
         <f aca="false">1/N34</f>
         <v>1.5625</v>
       </c>
@@ -621,7 +722,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -631,22 +732,22 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -656,32 +757,32 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -702,62 +803,294 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:M35"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J35" activeCellId="0" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.45"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>389</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>130</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>380</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>199</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I26" s="0" t="n">
+        <f aca="false">0.03*3.89</f>
+        <v>0.1167</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I27" s="0" t="n">
+        <f aca="false">I26+1</f>
+        <v>1.1167</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I28" s="0" t="n">
+        <f aca="false">I27^13.5</f>
+        <v>4.43754702016859</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I29" s="0" t="n">
+        <f aca="false">1/I28</f>
+        <v>0.225349724849114</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="0" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I32" s="0" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I33" s="0" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="0" t="n">
+        <v>14000</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <f aca="false">SUM(I31:I33)</f>
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="0" t="n">
+        <f aca="false">H34/I34</f>
+        <v>183.727034120735</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B3:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
-        <v>44</v>
+      <c r="B3" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="0" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="s">
-        <v>48</v>
+      <c r="B10" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="0" t="s">
-        <v>49</v>
+      <c r="B12" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/CIS655/CIS655.xlsx
+++ b/CIS655/CIS655.xlsx
@@ -1,19 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captain\Syracuse\Syracuse\CIS655\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0966C8-D7F4-40D9-AD89-FB1106640864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Live 1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Week 1" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Week 2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Live 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Week 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Live 2" sheetId="4" r:id="rId4"/>
+    <sheet name="HW2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,18 +37,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
-  <si>
-    <t xml:space="preserve">TRY TO FIND A PAPER ON MEMORY, DO NOT FOCUS ON CPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parallelism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limited resources, must execute in parallel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One example (of four): pipelining</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
+  <si>
+    <t>TRY TO FIND A PAPER ON MEMORY, DO NOT FOCUS ON CPU</t>
+  </si>
+  <si>
+    <t>Parallelism</t>
+  </si>
+  <si>
+    <t>Limited resources, must execute in parallel</t>
+  </si>
+  <si>
+    <t>One example (of four): pipelining</t>
   </si>
   <si>
     <r>
@@ -48,96 +63,96 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">stages</t>
+      <t>stages</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Five stages:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instruction Fetch (Ifetch)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In memory first (once you load program)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program Counter (PC) points to location of instruction set in memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register read (reg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instruction decode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interpret/understand instruciton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also: read registers you want to work on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Say you want to add two numbers, must have the registers where the two numbers are</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execute (ALU)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the ALU will perform the action if its add/substract/etc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Memory Access (Dmem)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for instructions like load/store, must work between memory and register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register Write (Reg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destination of operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For registers, can ask registers to be read in the first half of the cycle and written (or vice versa) in the second half</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No longer have a conflict if two instruction sets are accessing registers on the same cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Principle of Locality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temporal: if an item is referenced, it will tend to be referenced again soon (loops, reuse)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spacial: if an item is referenced, items whose addresses are close by tend to be referenced again soon (straight-line code, aray access)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Focus on the Common Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amdahl's Law</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processor Performance Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU Time = seconds/program = instructions/program x cycles/instruction x seconds/cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latency Lagging Bandwith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bandwith doubles, latency improves by a smaller factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bandwith easier to sell</t>
+    <t>Five stages:</t>
+  </si>
+  <si>
+    <t>Instruction Fetch (Ifetch)</t>
+  </si>
+  <si>
+    <t>In memory first (once you load program)</t>
+  </si>
+  <si>
+    <t>Program Counter (PC) points to location of instruction set in memory</t>
+  </si>
+  <si>
+    <t>Register read (reg)</t>
+  </si>
+  <si>
+    <t>Instruction decode</t>
+  </si>
+  <si>
+    <t>Interpret/understand instruciton</t>
+  </si>
+  <si>
+    <t>Also: read registers you want to work on</t>
+  </si>
+  <si>
+    <t>Say you want to add two numbers, must have the registers where the two numbers are</t>
+  </si>
+  <si>
+    <t>Execute (ALU)</t>
+  </si>
+  <si>
+    <t>the ALU will perform the action if its add/substract/etc</t>
+  </si>
+  <si>
+    <t>Data Memory Access (Dmem)</t>
+  </si>
+  <si>
+    <t>for instructions like load/store, must work between memory and register</t>
+  </si>
+  <si>
+    <t>Register Write (Reg)</t>
+  </si>
+  <si>
+    <t>Destination of operation</t>
+  </si>
+  <si>
+    <t>For registers, can ask registers to be read in the first half of the cycle and written (or vice versa) in the second half</t>
+  </si>
+  <si>
+    <t>No longer have a conflict if two instruction sets are accessing registers on the same cycle</t>
+  </si>
+  <si>
+    <t>Principle of Locality</t>
+  </si>
+  <si>
+    <t>Temporal: if an item is referenced, it will tend to be referenced again soon (loops, reuse)</t>
+  </si>
+  <si>
+    <t>Spacial: if an item is referenced, items whose addresses are close by tend to be referenced again soon (straight-line code, aray access)</t>
+  </si>
+  <si>
+    <t>Focus on the Common Case</t>
+  </si>
+  <si>
+    <t>Amdahl's Law</t>
+  </si>
+  <si>
+    <t>Processor Performance Equation</t>
+  </si>
+  <si>
+    <t>CPU Time = seconds/program = instructions/program x cycles/instruction x seconds/cycle</t>
+  </si>
+  <si>
+    <t>Latency Lagging Bandwith</t>
+  </si>
+  <si>
+    <t>Bandwith doubles, latency improves by a smaller factor</t>
+  </si>
+  <si>
+    <t>Bandwith easier to sell</t>
   </si>
   <si>
     <r>
@@ -152,54 +167,54 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">not vice versa</t>
+      <t>not vice versa</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Latency: finish task earlier, get more data to process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Consumption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic: depends on the load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional dominant energy consumption has been switch transistors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Static: even when a transistor is off, this is static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leakage current increases in processors with smaller transistor sizes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increasing the number of transistors increases power even if they are turned off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMOS transistor has the lowest leakage technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data level parallelism (DLP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arises because there are many data items that can be operated on at the same time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task Level parallelism (TLP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arises because tasks of work are created that can operate independently and largely in parallel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardware Explotation</t>
+    <t>Latency: finish task earlier, get more data to process</t>
+  </si>
+  <si>
+    <t>Power Consumption</t>
+  </si>
+  <si>
+    <t>Dynamic: depends on the load</t>
+  </si>
+  <si>
+    <t>Traditional dominant energy consumption has been switch transistors</t>
+  </si>
+  <si>
+    <t>Static: even when a transistor is off, this is static</t>
+  </si>
+  <si>
+    <t>Leakage current increases in processors with smaller transistor sizes</t>
+  </si>
+  <si>
+    <t>Increasing the number of transistors increases power even if they are turned off</t>
+  </si>
+  <si>
+    <t>CMOS transistor has the lowest leakage technology</t>
+  </si>
+  <si>
+    <t>Data level parallelism (DLP)</t>
+  </si>
+  <si>
+    <t>Arises because there are many data items that can be operated on at the same time</t>
+  </si>
+  <si>
+    <t>Task Level parallelism (TLP)</t>
+  </si>
+  <si>
+    <t>Arises because tasks of work are created that can operate independently and largely in parallel</t>
+  </si>
+  <si>
+    <t>Hardware Explotation</t>
   </si>
   <si>
     <r>
@@ -214,14 +229,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">compiler</t>
+      <t>compiler</t>
     </r>
     <r>
       <rPr>
@@ -235,66 +250,66 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">speculative execution</t>
+      <t>speculative execution</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Vector Architectures and GPUs: DLP by applying a single instruction to a collection of data in parallel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thread Level: DLP or TLP in a tightly coupled hardware model that allows for interaction among parallel threads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request Level: largely decoupled tasks specified by the programmer or the OS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDP: thermal design power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sustained power consumption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neither peak power (which can be 1.5x higher), nor average actual power consumed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power: engery per unit of time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 watt = 1 joule per second</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est. Defect rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturing size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transistors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBM Power5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Niagra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMD Opteron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combinational output is dependent only on current input</t>
+    <t>Vector Architectures and GPUs: DLP by applying a single instruction to a collection of data in parallel</t>
+  </si>
+  <si>
+    <t>Thread Level: DLP or TLP in a tightly coupled hardware model that allows for interaction among parallel threads</t>
+  </si>
+  <si>
+    <t>Request Level: largely decoupled tasks specified by the programmer or the OS</t>
+  </si>
+  <si>
+    <t>TDP: thermal design power</t>
+  </si>
+  <si>
+    <t>sustained power consumption</t>
+  </si>
+  <si>
+    <t>neither peak power (which can be 1.5x higher), nor average actual power consumed</t>
+  </si>
+  <si>
+    <t>Power: engery per unit of time</t>
+  </si>
+  <si>
+    <t>1 watt = 1 joule per second</t>
+  </si>
+  <si>
+    <t>Chip</t>
+  </si>
+  <si>
+    <t>Die Size</t>
+  </si>
+  <si>
+    <t>Est. Defect rate</t>
+  </si>
+  <si>
+    <t>Manufacturing size</t>
+  </si>
+  <si>
+    <t>Transistors</t>
+  </si>
+  <si>
+    <t>IBM Power5</t>
+  </si>
+  <si>
+    <t>Sun Niagra</t>
+  </si>
+  <si>
+    <t>AMD Opteron</t>
+  </si>
+  <si>
+    <t>Combinational output is dependent only on current input</t>
   </si>
   <si>
     <r>
@@ -309,52 +324,304 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">the previous inputs</t>
+      <t>the previous inputs</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Flip-flop: made of two or more latches, so more expensive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like a snapshot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latch: depends on clock up or down, just push out what is “heard” at that moment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AV8 Pipeline: 5 stages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF: instruction fetch from memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID: Instruction decode and register read</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX: execute operation or calculate address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEM: Access memory operand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WB: wrtie result back to register</t>
+    <t>Flip-flop: made of two or more latches, so more expensive</t>
+  </si>
+  <si>
+    <t>like a snapshot</t>
+  </si>
+  <si>
+    <t>Latch: depends on clock up or down, just push out what is “heard” at that moment</t>
+  </si>
+  <si>
+    <t>AV8 Pipeline: 5 stages</t>
+  </si>
+  <si>
+    <t>IF: instruction fetch from memory</t>
+  </si>
+  <si>
+    <t>ID: Instruction decode and register read</t>
+  </si>
+  <si>
+    <t>EX: execute operation or calculate address</t>
+  </si>
+  <si>
+    <t>MEM: Access memory operand</t>
+  </si>
+  <si>
+    <t>WB: wrtie result back to register</t>
+  </si>
+  <si>
+    <t>// paper requirments</t>
+  </si>
+  <si>
+    <t>don't just summarize, give technical background and expertise</t>
+  </si>
+  <si>
+    <t>more than summary and feedback</t>
+  </si>
+  <si>
+    <t>need to implement something that you have read about</t>
+  </si>
+  <si>
+    <t>due Tuesday Aug 25th</t>
+  </si>
+  <si>
+    <t>presentation either week 8 or 10</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>Instruction set</t>
+  </si>
+  <si>
+    <t>middle layer between software and hardware</t>
+  </si>
+  <si>
+    <t>stack: partition in memory</t>
+  </si>
+  <si>
+    <t>it's unique because it is LIFO</t>
+  </si>
+  <si>
+    <t>ALU connected to stack, and also receives data from stack</t>
+  </si>
+  <si>
+    <t>Accumulator: special register connected to ALU</t>
+  </si>
+  <si>
+    <t>Other terminal connected to memory</t>
+  </si>
+  <si>
+    <t>result is also back to accumulator</t>
+  </si>
+  <si>
+    <t>Taxonomy of ISA</t>
+  </si>
+  <si>
+    <t>RISC: divide instruction sets and breaks it down</t>
+  </si>
+  <si>
+    <t>CISC: one instruction can be just carried out</t>
+  </si>
+  <si>
+    <t>RISC: also called load-store architecture</t>
+  </si>
+  <si>
+    <t>only a few instruction types</t>
+  </si>
+  <si>
+    <t>no memory-memory instructions</t>
+  </si>
+  <si>
+    <t>data loaded to registers</t>
+  </si>
+  <si>
+    <t>lw $3, 0($2)</t>
+  </si>
+  <si>
+    <t>st $4, 40($5)</t>
+  </si>
+  <si>
+    <t>in parenthases: base. Number in front is offset</t>
+  </si>
+  <si>
+    <t>all instructions are 32-bits</t>
+  </si>
+  <si>
+    <t>#: immediate addressing mode</t>
+  </si>
+  <si>
+    <t>operand: the data</t>
+  </si>
+  <si>
+    <t>address of the operand: effective address</t>
+  </si>
+  <si>
+    <t>vs.</t>
+  </si>
+  <si>
+    <t>indirect addressing</t>
+  </si>
+  <si>
+    <t>address of address of A in instruction</t>
+  </si>
+  <si>
+    <t>go to memory, find a second address</t>
+  </si>
+  <si>
+    <t>then go to operand</t>
+  </si>
+  <si>
+    <t>to jump/branch: CCR (condition code register)</t>
+  </si>
+  <si>
+    <t>instruction types: I, R, J</t>
+  </si>
+  <si>
+    <t>Instruction fields: opcdoe, rs, rt, immediate</t>
+  </si>
+  <si>
+    <t>MARS:</t>
+  </si>
+  <si>
+    <t>registers: value is in hexidecimal</t>
+  </si>
+  <si>
+    <t>64 in hex: 100</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">code column next to address: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>32 bit instruction</t>
+    </r>
+  </si>
+  <si>
+    <t>translates the source column, which was the original instruction from the code</t>
+  </si>
+  <si>
+    <t>Data segment section</t>
+  </si>
+  <si>
+    <t>4 blocks: because 4 bytes</t>
+  </si>
+  <si>
+    <t>HW:</t>
+  </si>
+  <si>
+    <t>Do Q1 and Q2 this week</t>
+  </si>
+  <si>
+    <t>Q3 explained next week</t>
+  </si>
+  <si>
+    <t>Q2:</t>
+  </si>
+  <si>
+    <t>open an editor, type instructions, hit button, show result, show code in hex/dec, show memory</t>
+  </si>
+  <si>
+    <t>add immediately, add float those are different</t>
+  </si>
+  <si>
+    <t>~50, professor won't count</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GUI is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>recommended</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, not required</t>
+    </r>
+  </si>
+  <si>
+    <t>how to feed instructions: anyway you want (read from a file, open a text box and type inside the text box)</t>
+  </si>
+  <si>
+    <t>user enters commands like MARS, not binary</t>
+  </si>
+  <si>
+    <t>commands</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>mult</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>sqrt</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>addi</t>
+  </si>
+  <si>
+    <t>subi</t>
+  </si>
+  <si>
+    <t>leq</t>
+  </si>
+  <si>
+    <t>lest</t>
+  </si>
+  <si>
+    <t>greq</t>
+  </si>
+  <si>
+    <t>grt</t>
+  </si>
+  <si>
+    <t>iseq</t>
+  </si>
+  <si>
+    <t>noeq</t>
+  </si>
+  <si>
+    <t>jmp</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>print_char</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -363,27 +630,33 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -395,7 +668,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -403,62 +676,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -474,11 +722,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -511,11 +765,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 2" descr=""/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -536,363 +796,647 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:N58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I58" activeCellId="0" sqref="I58"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="2" t="n">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="2" t="n">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="2" t="n">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="2">
         <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="2" t="n">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
         <v>4</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="2" t="n">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="2">
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L34" s="2" t="n">
+      <c r="L34" s="2">
         <v>0.6</v>
       </c>
-      <c r="M34" s="2" t="n">
-        <f aca="false">0.4/10</f>
+      <c r="M34" s="2">
+        <f>0.4/10</f>
         <v>0.04</v>
       </c>
-      <c r="N34" s="2" t="n">
-        <f aca="false">SUM(L34:M34)</f>
+      <c r="N34" s="2">
+        <f>SUM(L34:M34)</f>
         <v>0.64</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N35" s="2" t="n">
-        <f aca="false">1/N34</f>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="2">
+        <f>1/N34</f>
         <v>1.5625</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D48" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D53" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D55" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J35" activeCellId="0" sqref="J35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.45"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I20" s="1" t="s">
         <v>55</v>
       </c>
@@ -909,116 +1453,115 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="0" t="s">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="J21" s="3">
         <v>389</v>
       </c>
-      <c r="K21" s="3" t="n">
+      <c r="K21" s="3">
         <v>0.03</v>
       </c>
-      <c r="L21" s="3" t="n">
+      <c r="L21" s="3">
         <v>130</v>
       </c>
-      <c r="M21" s="3" t="n">
+      <c r="M21" s="3">
         <v>276</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="0" t="s">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="3" t="n">
+      <c r="J22" s="3">
         <v>380</v>
       </c>
-      <c r="K22" s="3" t="n">
+      <c r="K22" s="3">
         <v>0.75</v>
       </c>
-      <c r="L22" s="3" t="n">
+      <c r="L22" s="3">
         <v>90</v>
       </c>
-      <c r="M22" s="3" t="n">
+      <c r="M22" s="3">
         <v>279</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="0" t="s">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="3" t="n">
+      <c r="J23" s="3">
         <v>199</v>
       </c>
-      <c r="K23" s="3" t="n">
+      <c r="K23" s="3">
         <v>0.75</v>
       </c>
-      <c r="L23" s="3" t="n">
+      <c r="L23" s="3">
         <v>90</v>
       </c>
-      <c r="M23" s="3" t="n">
+      <c r="M23" s="3">
         <v>233</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="0" t="n">
-        <f aca="false">0.03*3.89</f>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f>0.03*3.89</f>
         <v>0.1167</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I27" s="0" t="n">
-        <f aca="false">I26+1</f>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f>I26+1</f>
         <v>1.1167</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I28" s="0" t="n">
-        <f aca="false">I27^13.5</f>
-        <v>4.43754702016859</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I29" s="0" t="n">
-        <f aca="false">1/I28</f>
-        <v>0.225349724849114</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I31" s="0" t="n">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f>I27^13.5</f>
+        <v>4.4375470201685925</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f>1/I28</f>
+        <v>0.22534972484911445</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I31">
         <v>66</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I32" s="0" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I33" s="0" t="n">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I33">
         <v>7.9</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="0" t="n">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H34">
         <v>14000</v>
       </c>
-      <c r="I34" s="0" t="n">
-        <f aca="false">SUM(I31:I33)</f>
+      <c r="I34">
+        <f>SUM(I31:I33)</f>
         <v>76.2</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H35" s="0" t="n">
-        <f aca="false">H34/I34</f>
-        <v>183.727034120735</v>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f>H34/I34</f>
+        <v>183.72703412073491</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1026,80 +1569,476 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:C17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C055D0AC-AF3F-4150-9570-0AB1070922E3}">
+  <dimension ref="B3:G63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F15D571-48C6-4806-9FAF-20D9AFAE5538}">
+  <dimension ref="B1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CIS655/CIS655.xlsx
+++ b/CIS655/CIS655.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captain\Syracuse\Syracuse\CIS655\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0966C8-D7F4-40D9-AD89-FB1106640864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7DAD10-4E61-4139-AF1D-C28D1D7D67CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Live 1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,12 @@
     <sheet name="Week 2" sheetId="3" r:id="rId3"/>
     <sheet name="Live 2" sheetId="4" r:id="rId4"/>
     <sheet name="HW2" sheetId="5" r:id="rId5"/>
+    <sheet name="Live 3" sheetId="6" r:id="rId6"/>
+    <sheet name="Live 4" sheetId="7" r:id="rId7"/>
+    <sheet name="Live 4.2" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
+    <sheet name="Live 5" sheetId="9" r:id="rId10"/>
+    <sheet name="Live 6" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="647">
   <si>
     <t>TRY TO FIND A PAPER ON MEMORY, DO NOT FOCUS ON CPU</t>
   </si>
@@ -616,12 +622,1833 @@
   <si>
     <t>print_char</t>
   </si>
+  <si>
+    <t>addd</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r10</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>adi</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>r40</t>
+  </si>
+  <si>
+    <t>add documentation:</t>
+  </si>
+  <si>
+    <t>opcode for add</t>
+  </si>
+  <si>
+    <t>add: 000</t>
+  </si>
+  <si>
+    <t>r1: 001</t>
+  </si>
+  <si>
+    <t>r2: 010</t>
+  </si>
+  <si>
+    <t>translation/interpretation of codes</t>
+  </si>
+  <si>
+    <t>opcode</t>
+  </si>
+  <si>
+    <t>3 bits for opcode, 3 for destination, 3 for reg, 3 for reg 2</t>
+  </si>
+  <si>
+    <t>Lower MIPS</t>
+  </si>
+  <si>
+    <t>MARS clone:</t>
+  </si>
+  <si>
+    <t>text box/white screen to type in</t>
+  </si>
+  <si>
+    <t>third screen to show result</t>
+  </si>
+  <si>
+    <t>middle screen</t>
+  </si>
+  <si>
+    <t>add, subi, etc.</t>
+  </si>
+  <si>
+    <t>every time you press enter, you see the binary representation of that instruction</t>
+  </si>
+  <si>
+    <t>Then, you see registers with their values</t>
+  </si>
+  <si>
+    <t>should include some sort of memory/address space</t>
+  </si>
+  <si>
+    <t>16 registers, each one is 8 bits</t>
+  </si>
+  <si>
+    <t>///</t>
+  </si>
+  <si>
+    <t>Pipelining</t>
+  </si>
+  <si>
+    <t>multiple instructinos are overlapped in execution</t>
+  </si>
+  <si>
+    <t>each is a different stage</t>
+  </si>
+  <si>
+    <t>each stage is called pipe stage or segment</t>
+  </si>
+  <si>
+    <t>throughput: # insturcions completed/cycle</t>
+  </si>
+  <si>
+    <t>cycle: could be nanoseconds, minute, doesn't matter. Inside each machine</t>
+  </si>
+  <si>
+    <t>each step takes a machine cycle</t>
+  </si>
+  <si>
+    <t>want to balance the work</t>
+  </si>
+  <si>
+    <t>instruction Fetch</t>
+  </si>
+  <si>
+    <t>IR: instruction register</t>
+  </si>
+  <si>
+    <t>instruction decode/register fetch cycle (ID)</t>
+  </si>
+  <si>
+    <t>decode the instruction and read the registers corresponding to register source specifiers</t>
+  </si>
+  <si>
+    <t>do the equailty test on registers</t>
+  </si>
+  <si>
+    <t>sign-extend</t>
+  </si>
+  <si>
+    <t>compute possible branch tragert address</t>
+  </si>
+  <si>
+    <t>decoding is done in parallel with reading registers</t>
+  </si>
+  <si>
+    <t>Execution/effective address cycle (EX)</t>
+  </si>
+  <si>
+    <t>Stages (RISC)</t>
+  </si>
+  <si>
+    <t>ALU operates on the operands and performs one of three functions:</t>
+  </si>
+  <si>
+    <t>memory reference: adds base register and the offset to form address</t>
+  </si>
+  <si>
+    <t>R-R ALU instruction: perform the operation on the values read from register files</t>
+  </si>
+  <si>
+    <t>R-Immediate ALU</t>
+  </si>
+  <si>
+    <t>Memory Access</t>
+  </si>
+  <si>
+    <t>If load, memory does a read using the effective address</t>
+  </si>
+  <si>
+    <t>If store, then the memory writes the data</t>
+  </si>
+  <si>
+    <t>Reg-reg, reg-imm, load instruction</t>
+  </si>
+  <si>
+    <t>Write-back cycle (WB)</t>
+  </si>
+  <si>
+    <t>Must do write first, so the read doesn't take old data</t>
+  </si>
+  <si>
+    <t>Registers are fast, so can split a cycle</t>
+  </si>
+  <si>
+    <t>separate I and D cache</t>
+  </si>
+  <si>
+    <t>// instruction and data</t>
+  </si>
+  <si>
+    <t>this allows memory to be accessed by two different instructions in the same cycle</t>
+  </si>
+  <si>
+    <t>Performance Issues</t>
+  </si>
+  <si>
+    <t>each instruction is slower, extra regs and time of slowest pipe stage</t>
+  </si>
+  <si>
+    <t>but throughput is higher</t>
+  </si>
+  <si>
+    <t>Ex</t>
+  </si>
+  <si>
+    <t>Unpipelined</t>
+  </si>
+  <si>
+    <t>10ns cycle time</t>
+  </si>
+  <si>
+    <t>4 cycles for ALU (40%), branch (20%), 5 cycles for mem (40%)</t>
+  </si>
+  <si>
+    <t>Pipelining: add 1 ns to clock overhead</t>
+  </si>
+  <si>
+    <t>Speedup:</t>
+  </si>
+  <si>
+    <t>need to find weighted weighted average</t>
+  </si>
+  <si>
+    <t>usually ignore startup time</t>
+  </si>
+  <si>
+    <t>structural: resource conflict</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>some combination of instructions cannot be accomodated because of resource conflicts</t>
+  </si>
+  <si>
+    <t>registers: one on rise, one on fall</t>
+  </si>
+  <si>
+    <t>memory: two separate caches</t>
+  </si>
+  <si>
+    <t>can stall/bubble (waste one cycle)</t>
+  </si>
+  <si>
+    <t>Ex:</t>
+  </si>
+  <si>
+    <t>machine1: separate I, D (no structure hazards)</t>
+  </si>
+  <si>
+    <t>machine2: structure hazard (uunified I,D):</t>
+  </si>
+  <si>
+    <t>clock rate 1/1.05 of machine 1</t>
+  </si>
+  <si>
+    <t>40% of instructions are data access</t>
+  </si>
+  <si>
+    <t>which is faster:</t>
+  </si>
+  <si>
+    <t>pipeline stall overhead=1</t>
+  </si>
+  <si>
+    <t>avg: CPI * (clock cycle time) = 1*(clock cycle time)</t>
+  </si>
+  <si>
+    <t>where (1+0.4*1) == 1 + (freq * pipeline stall overhead)</t>
+  </si>
+  <si>
+    <t>CPI: cycles per instructions</t>
+  </si>
+  <si>
+    <t>Avg inst time = CPI * cycle time</t>
+  </si>
+  <si>
+    <t>avg: CPI * (clock cycle time) / 1.05 = (1 + 0.4 * 1) * (clock cycle time) / 1.05 = 1.3 (clock cycle time)</t>
+  </si>
+  <si>
+    <t>1 because must waist a clock cycle, but you only have a conflict of the 40% of the time</t>
+  </si>
+  <si>
+    <t>= 1.3 * (clock cyle time)</t>
+  </si>
+  <si>
+    <t>Hazards (structural, data, control)</t>
+  </si>
+  <si>
+    <t>Occurs because pipelining changes the order of read/write accesses to operands</t>
+  </si>
+  <si>
+    <t>DADD R1, R2, R3</t>
+  </si>
+  <si>
+    <t>DSUB R4, R1, R5</t>
+  </si>
+  <si>
+    <t>AND R6, R1, R7</t>
+  </si>
+  <si>
+    <t>OR R8, R1, R9</t>
+  </si>
+  <si>
+    <t>XOR R10, R1, R11</t>
+  </si>
+  <si>
+    <t>some instructions require the result of another</t>
+  </si>
+  <si>
+    <t>Ex (note the R1s)</t>
+  </si>
+  <si>
+    <t>To detect data hazard:</t>
+  </si>
+  <si>
+    <t>when/where R1 is available</t>
+  </si>
+  <si>
+    <t>when/where R1 is needed</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>(ALU)</t>
+  </si>
+  <si>
+    <t>Available halfway through write-back (middle of W)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>In middle</t>
+  </si>
+  <si>
+    <t>before the second half of the decoe</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>If yes, add stall cycle (because you have data hazard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum number of stall cycles: </t>
+  </si>
+  <si>
+    <t>Need two stall cycles</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Fetch is always under the D, followed by S if needed</t>
+  </si>
+  <si>
+    <t>always put stall after fetch</t>
+  </si>
+  <si>
+    <t>can postpone D as much as we want</t>
+  </si>
+  <si>
+    <t>No forwarding solution&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Forwarding solution&gt;&gt;</t>
+  </si>
+  <si>
+    <t>extra hardware: forwarding unit (must pay for it, needs circuits to support it)</t>
+  </si>
+  <si>
+    <t>Instead of waiting for R1, take R1 earlier</t>
+  </si>
+  <si>
+    <t>X is also the latest you can use it. So delay, line up X to X</t>
+  </si>
+  <si>
+    <t>ALU to ALU without giving to the decode stage</t>
+  </si>
+  <si>
+    <t>but must have forwarding unit</t>
+  </si>
+  <si>
+    <t>forward arrow ok</t>
+  </si>
+  <si>
+    <t>Not always the answer</t>
+  </si>
+  <si>
+    <t>LW R1, 0(R2)</t>
+  </si>
+  <si>
+    <t>SUB R4, R1, R5</t>
+  </si>
+  <si>
+    <t>without forwarding</t>
+  </si>
+  <si>
+    <t>with forwarding</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>arithmetic</t>
+    </r>
+  </si>
+  <si>
+    <t>X is the oven for add, can't take before, but can take right after X</t>
+  </si>
+  <si>
+    <t>Now the oven is M because this is a load operation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R1 is needed at the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>beginning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> of X</t>
+    </r>
+  </si>
+  <si>
+    <t>is there backwards arrow or not? (drawn below in red)</t>
+  </si>
+  <si>
+    <t>Can put the stall before or after D</t>
+  </si>
+  <si>
+    <t>Still need a stall even with forwarding unit</t>
+  </si>
+  <si>
+    <t>Midterm: like homework 1 and 3</t>
+  </si>
+  <si>
+    <t>open notes, standard exam</t>
+  </si>
+  <si>
+    <t>lectures and homeworks</t>
+  </si>
+  <si>
+    <t>Pipelining Continued</t>
+  </si>
+  <si>
+    <t>Three questions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">with forwarding unit and without </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>the answers are different</t>
+    </r>
+  </si>
+  <si>
+    <t>when/where is r1 (potential hazard register) available</t>
+  </si>
+  <si>
+    <t>if no forwarding</t>
+  </si>
+  <si>
+    <t>when is r1 needed to read from</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">draw an arrow, if it is backwards </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>it is a hazard</t>
+    </r>
+  </si>
+  <si>
+    <t>without forwarding, need to add stalls</t>
+  </si>
+  <si>
+    <t>must be exact with how many stalls</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">in the middle of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>decode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">in the middle of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>write back</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (not the end)</t>
+    </r>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Forwarding</t>
+  </si>
+  <si>
+    <t>where is the "oven"</t>
+  </si>
+  <si>
+    <t>could be ALU or memory</t>
+  </si>
+  <si>
+    <t>depends on instruction</t>
+  </si>
+  <si>
+    <t>when is r1 needed</t>
+  </si>
+  <si>
+    <t>beginning of x (for a subtract)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">arrow goes forward, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>no stall needed</t>
+    </r>
+  </si>
+  <si>
+    <t>for add, it's x (calculation)</t>
+  </si>
+  <si>
+    <t>Ex2</t>
+  </si>
+  <si>
+    <t>LW r1, 5(r2)</t>
+  </si>
+  <si>
+    <t>Add r3, r1, r2</t>
+  </si>
+  <si>
+    <t>potential hazard with r1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R1 available at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> of the  memory cycle</t>
+    </r>
+  </si>
+  <si>
+    <t>add with forwarding, at beginning of x</t>
+  </si>
+  <si>
+    <t>Ex3</t>
+  </si>
+  <si>
+    <t>sw r1, 50(r2)</t>
+  </si>
+  <si>
+    <t>sub r3, r1, r2</t>
+  </si>
+  <si>
+    <t>two dependent registers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">potential </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">potential </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>hazars</t>
+    </r>
+  </si>
+  <si>
+    <t>did not change value of r1</t>
+  </si>
+  <si>
+    <t>sw: take value of r1 and insert it in r2 + 50</t>
+  </si>
+  <si>
+    <t>sw different than r1</t>
+  </si>
+  <si>
+    <t>No hazard issues</t>
+  </si>
+  <si>
+    <t>Three solutions</t>
+  </si>
+  <si>
+    <t>stall, forwarding, and out of order execution</t>
+  </si>
+  <si>
+    <t>Out of order execution</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">software scheduling to avoid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Load Hazards</t>
+    </r>
+  </si>
+  <si>
+    <t>Different types of hazards</t>
+  </si>
+  <si>
+    <t>Structural, data, and control</t>
+  </si>
+  <si>
+    <t>Already discussed structural and data</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Stall pipeline as soon as the branch is detected until the MEM</t>
+  </si>
+  <si>
+    <t>If program is purely sequential, no problems</t>
+  </si>
+  <si>
+    <t>Only if there are potential branches/jumps</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pipeline assumes branch is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> going to be taken, but if it needs to be taken, then undo</t>
+    </r>
+  </si>
+  <si>
+    <t>if you have to "waste time" then just add stall cycles</t>
+  </si>
+  <si>
+    <t>this is "dumb" pipeline</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Better solution: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Branch Prediction</t>
+    </r>
+  </si>
+  <si>
+    <t>Delay branch and have something "useful" done after each branch just in case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For prediction: </t>
+  </si>
+  <si>
+    <t>1-bit:  just do what the program did last time</t>
+  </si>
+  <si>
+    <t>2-bit: only change prediction on two successive mispredictions</t>
+  </si>
+  <si>
+    <t>if you can't more hardware, just add stalls (slower)</t>
+  </si>
+  <si>
+    <t>more bits add more hardware (more complexity, faster)</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>no main memory on the chip</t>
+  </si>
+  <si>
+    <t>cache memory on chip</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L2-cache </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>off</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the chip</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> for examples</t>
+  </si>
+  <si>
+    <t>Locality</t>
+  </si>
+  <si>
+    <t>Temporal vs. spacital</t>
+  </si>
+  <si>
+    <t>temporal: loop</t>
+  </si>
+  <si>
+    <t>spatial: array</t>
+  </si>
+  <si>
+    <t>Memory Hierarchy Terminology</t>
+  </si>
+  <si>
+    <t>Hit: data in some block in the upper level</t>
+  </si>
+  <si>
+    <t>Miss: data needs to be retrieved from a block in the lower level</t>
+  </si>
+  <si>
+    <t>Not just L1/L2, any levels</t>
+  </si>
+  <si>
+    <t>Main memory disc too</t>
+  </si>
+  <si>
+    <t>hit rate: fraction of memory access found in upper level</t>
+  </si>
+  <si>
+    <t>hit time: time to access the upper level (RAM access tiem + Time)</t>
+  </si>
+  <si>
+    <t>miss rate = 1 - (hit rate)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">miss penalty: time to replace a block in the upper level + Time to deliver block to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>processor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Block: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-words</t>
+    </r>
+  </si>
+  <si>
+    <t>Cache performance</t>
+  </si>
+  <si>
+    <t>Memory stall cycles: number of cycles during CPU waiting</t>
+  </si>
+  <si>
+    <t>CPU time = (CPU clock cycles + Mem stall cycles) x Cycle Time</t>
+  </si>
+  <si>
+    <t>Mem stall cycles = # of misses x miss penalty</t>
+  </si>
+  <si>
+    <t>IC x Mem misses/inst x miss penalty</t>
+  </si>
+  <si>
+    <t>IC x mem access/inst x miss rate x miss penalty</t>
+  </si>
+  <si>
+    <t>Miss rate: fraction of cache accesses that result in a miss</t>
+  </si>
+  <si>
+    <t>Tradtional Four Question of Memory Hierarchy</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>where can a block be place din the upper level (block placement)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a. fully associative: any block in main memory in any block frame. Flexible but expensive due to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>associativity</t>
+    </r>
+  </si>
+  <si>
+    <t>b. Direct mapped: only one place for each block (hard coded address)</t>
+  </si>
+  <si>
+    <t>can cause a "victim": kick one of the old cache blocks away</t>
+  </si>
+  <si>
+    <t>c. N-way associative: divide cache into sets/groups, free to choose whichever block you want</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>how is a block found if it is in the uper level (block identification)</t>
+  </si>
+  <si>
+    <t>&lt;25&gt;/&lt;9&gt;/&lt;6&gt;</t>
+  </si>
+  <si>
+    <t>tag/index/block offet</t>
+  </si>
+  <si>
+    <t>block size is 64 bytes (2^6)</t>
+  </si>
+  <si>
+    <t>2^index = cache size / (Block size * set associativity)</t>
+  </si>
+  <si>
+    <t>2^index</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Which block should be replaced on a miss (block replacement)</t>
+  </si>
+  <si>
+    <t>more choices for replacement, the more expensive for hardware; direct mapping is the simplest</t>
+  </si>
+  <si>
+    <t>random vs. least-recently used (LRU): former has uniform allocatoin and is simple to build</t>
+  </si>
+  <si>
+    <t>latter can take advantage of termporal locality but can be expensive to implement</t>
+  </si>
+  <si>
+    <t>random, LRU, FIFO</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>what happens on a write</t>
+  </si>
+  <si>
+    <t>first three questions about reading</t>
+  </si>
+  <si>
+    <t>most chache accesses are reads: all instruction accesses are reads, and most instructions don't write to memory</t>
+  </si>
+  <si>
+    <t>write caches have different cache designs</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>write through: write info to blocks in bloth levels</t>
+  </si>
+  <si>
+    <t>ensures consistency at the cost of memory and bus bandwith</t>
+  </si>
+  <si>
+    <t>write stalls may be alleviated by using write buffers</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>write back: write info to blocks only in cache level</t>
+  </si>
+  <si>
+    <t>minimizing memory and bus traffic at the cost of weak consistency</t>
+  </si>
+  <si>
+    <t>use dirty bit to indicate modification, reduce frequency of write-back</t>
+  </si>
+  <si>
+    <t>read misses may result in writes</t>
+  </si>
+  <si>
+    <t>write miss</t>
+  </si>
+  <si>
+    <t>write allocate: normally used in write-back</t>
+  </si>
+  <si>
+    <t>no-write allocate: write miss does not affect cache, modified in lower-level cahche)</t>
+  </si>
+  <si>
+    <t>normally used in write-through</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>assume fully associative, write back cache with many cache entries that start empty</t>
+  </si>
+  <si>
+    <t>don't change values in lower levels</t>
+  </si>
+  <si>
+    <t>sequence of five memory operations (block address in brackets)</t>
+  </si>
+  <si>
+    <t>WriteMem[100];</t>
+  </si>
+  <si>
+    <t>ReadMem[200];</t>
+  </si>
+  <si>
+    <t>WriteMem[200];</t>
+  </si>
+  <si>
+    <t>For no-write alocate: misses and hits</t>
+  </si>
+  <si>
+    <t>For write allocate: misses and hits</t>
+  </si>
+  <si>
+    <t>can also be given a word address instead of block address, then need to map the word addresses to the block address given how many words per block</t>
+  </si>
+  <si>
+    <t>wm[100]</t>
+  </si>
+  <si>
+    <t>rm[200]</t>
+  </si>
+  <si>
+    <t>wm[200]</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>Q1 - 3</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>one block in cache</t>
+  </si>
+  <si>
+    <t>one hit, four miss</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>hit/miss</t>
+  </si>
+  <si>
+    <t>cache is three block size</t>
+  </si>
+  <si>
+    <t>can only fit three blocks</t>
+  </si>
+  <si>
+    <t>100/200/</t>
+  </si>
+  <si>
+    <t>100 still there, 200 is added, still have an open space</t>
+  </si>
+  <si>
+    <t>that's just stupid. The correct way to solve this would be either a neural network, or a blockahin. Or both to be sure it's good</t>
+  </si>
+  <si>
+    <t>CPU Cycles</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>HW3 due Tuesday 8/11</t>
+  </si>
+  <si>
+    <t>Midterm Tuesday 8/17</t>
+  </si>
+  <si>
+    <t>during lecture</t>
+  </si>
+  <si>
+    <t>1.5 hours</t>
+  </si>
+  <si>
+    <t>open everything</t>
+  </si>
+  <si>
+    <t>exam posted to files</t>
+  </si>
+  <si>
+    <t>download word file</t>
+  </si>
+  <si>
+    <t>type your solutions</t>
+  </si>
+  <si>
+    <t>up to the end of today's lecture (week 5)</t>
+  </si>
+  <si>
+    <t>pipelining main focus, memory as a close second, everything else after</t>
+  </si>
+  <si>
+    <t>Four questions for memory</t>
+  </si>
+  <si>
+    <t>Review replacement policy</t>
+  </si>
+  <si>
+    <t>If cache is full, and you have a brand new block coming from main memory, which one to kick out/victim?</t>
+  </si>
+  <si>
+    <t>Principle of locality in space: read blocks not bites</t>
+  </si>
+  <si>
+    <t>In the case of read, always cache</t>
+  </si>
+  <si>
+    <t>Write: you have the option</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a choice </t>
+  </si>
+  <si>
+    <t>Average memory access time (AMAT)</t>
+  </si>
+  <si>
+    <t>cache is not unified</t>
+  </si>
+  <si>
+    <t>cache is unified</t>
+  </si>
+  <si>
+    <t>equation for instruction and instruction for data</t>
+  </si>
+  <si>
+    <t>Lower level: bigger, farther from processor</t>
+  </si>
+  <si>
+    <t>hit time + miss rate x miss penalty</t>
+  </si>
+  <si>
+    <t>Breakdown</t>
+  </si>
+  <si>
+    <t>Lx hit: time it takes to knock on Lx and see if you have a hit</t>
+  </si>
+  <si>
+    <t>if there's a hit, then miss time is zero</t>
+  </si>
+  <si>
+    <t>thus, AMAT is just Lx hit</t>
+  </si>
+  <si>
+    <t>miss rate: how often I'm going to miss</t>
+  </si>
+  <si>
+    <t>penalty: just a number, often in nanoseconds</t>
+  </si>
+  <si>
+    <t>Time spent going to main memory</t>
+  </si>
+  <si>
+    <t>If you miss on L1, then try to hit level 2</t>
+  </si>
+  <si>
+    <t>Only go after you check all levels of chace</t>
+  </si>
+  <si>
+    <t>Only one miss penalty</t>
+  </si>
+  <si>
+    <t>Miss rate of level 2: debatable</t>
+  </si>
+  <si>
+    <t>local miss rate or global miss rate</t>
+  </si>
+  <si>
+    <t>Processor has 100 tasks</t>
+  </si>
+  <si>
+    <t>L1: 20 hits</t>
+  </si>
+  <si>
+    <t>what is miss rate of L2?</t>
+  </si>
+  <si>
+    <t>L2: 40 misses</t>
+  </si>
+  <si>
+    <t>20 of the 100 already hit on L1</t>
+  </si>
+  <si>
+    <t>40/80 miss rate (local)</t>
+  </si>
+  <si>
+    <t>40/100 miss rate (global)</t>
+  </si>
+  <si>
+    <t>ALWAYS USE LOCAL MISS RATE!!!!!</t>
+  </si>
+  <si>
+    <t>In the case of loads and stores, the hit will take one extra clock cycle on unified cache</t>
+  </si>
+  <si>
+    <t>Split cache: just substitute numbers</t>
+  </si>
+  <si>
+    <t>Unified cahce: one trick</t>
+  </si>
+  <si>
+    <t>because of the load/store, one extra cycle</t>
+  </si>
+  <si>
+    <t>NOT present on the instruction part (74%)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">must add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> part (26%</t>
+    </r>
+  </si>
+  <si>
+    <t>BECAUSE OF STRUCTURAL HAZARD</t>
+  </si>
+  <si>
+    <t>miss rate formula is a given</t>
+  </si>
+  <si>
+    <t>misses per a set number (cannot report every single miss)</t>
+  </si>
+  <si>
+    <t>Pipelining review</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>ILP: instruction level parallelism</t>
+  </si>
+  <si>
+    <t>1. rely on hardware to help discover optimziation (dynamic)</t>
+  </si>
+  <si>
+    <t>2. rely on software technology (like compilers) (static)</t>
+  </si>
+  <si>
+    <t>Basic block: for ILP quite small, straight line code sequence</t>
+  </si>
+  <si>
+    <t>For performance enhancements, we must exploit ILP across multipel basic blocks</t>
+  </si>
+  <si>
+    <t>simplist: loop level parallelism</t>
+  </si>
+  <si>
+    <t>If you unroll and there are no opportunities to reorganize, may not be effective</t>
+  </si>
+  <si>
+    <t>need more instructions to have more options to move up and down</t>
+  </si>
+  <si>
+    <t>try to eliminate stalls</t>
+  </si>
+  <si>
+    <t>Read After Write (RAW) hazard</t>
+  </si>
+  <si>
+    <t>specific type of data dependency</t>
+  </si>
+  <si>
+    <t>if a data dependency cause a hazard in pipeline</t>
+  </si>
+  <si>
+    <t>Ex: we read from r1 right after we write into r1</t>
+  </si>
+  <si>
+    <t>Write After Read (WAR) hazard</t>
+  </si>
+  <si>
+    <t>anti-dependence</t>
+  </si>
+  <si>
+    <t>if you need to keep orginal value unchanged, then it is a problem</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to solve: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>change name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (name dependence)</t>
+    </r>
+  </si>
+  <si>
+    <t>no stall recalled</t>
+  </si>
+  <si>
+    <t>I = 5, i++</t>
+  </si>
+  <si>
+    <t>I = 5, I = j</t>
+  </si>
+  <si>
+    <t>Write After Write (WAW) hazard</t>
+  </si>
+  <si>
+    <t>name depence 2</t>
+  </si>
+  <si>
+    <t>I = I + 1</t>
+  </si>
+  <si>
+    <t>I = I + j</t>
+  </si>
+  <si>
+    <t>this may need a stall cycle</t>
+  </si>
+  <si>
+    <t>both RAW and WAW</t>
+  </si>
+  <si>
+    <t>Control Dependencies</t>
+  </si>
+  <si>
+    <t>every instruction is control dependent on some set of branches, and in general, order must be preserved</t>
+  </si>
+  <si>
+    <t>Data flow: actual flow of data vlaues among instructions that produce results and those that consume them</t>
+  </si>
+  <si>
+    <t>correlated branch prediction</t>
+  </si>
+  <si>
+    <t>n-bit branch history table</t>
+  </si>
+  <si>
+    <t>record m most recently exectured branches as taken or not taken, and use the pattern to select proper n</t>
+  </si>
+  <si>
+    <t>in general, (m,n) predictor means record last m branches to select between 2^m history tables, each with n-bit counters</t>
+  </si>
+  <si>
+    <t>thus, old 2-bit bht is a (0,2) predictor</t>
+  </si>
+  <si>
+    <t>miss penalty</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>Midterm</t>
+  </si>
+  <si>
+    <t>Before lecture, upload exam as a Word file</t>
+  </si>
+  <si>
+    <t>5-10 mins before</t>
+  </si>
+  <si>
+    <t>at end of class, convert to PDF, submit ONE SINGLE PDF</t>
+  </si>
+  <si>
+    <t>through the end of PREVIOUS lecture, not live 6</t>
+  </si>
+  <si>
+    <t>pipelining is big concept</t>
+  </si>
+  <si>
+    <t>5-6 questions</t>
+  </si>
+  <si>
+    <t>3 are pipelining</t>
+  </si>
+  <si>
+    <t>2 are memory management/cache</t>
+  </si>
+  <si>
+    <t>No code</t>
+  </si>
+  <si>
+    <t>////</t>
+  </si>
+  <si>
+    <t>Data Parallelism</t>
+  </si>
+  <si>
+    <t>SIMD architectures (single instruction multiple data) can exploing data-level parallelism:</t>
+  </si>
+  <si>
+    <t>matrix-oriented scientific computing</t>
+  </si>
+  <si>
+    <t>media-oriented image and sound processors</t>
+  </si>
+  <si>
+    <t>SIMD more energy efficient than MIMD</t>
+  </si>
+  <si>
+    <t>only one fetch</t>
+  </si>
+  <si>
+    <t>Three architectures</t>
+  </si>
+  <si>
+    <t>GPUs</t>
+  </si>
+  <si>
+    <t>X86: two additional cores per chip per year</t>
+  </si>
+  <si>
+    <t>SIMD width to double every 4 yearss</t>
+  </si>
+  <si>
+    <t>potential speedup from SIMD to be twice that from MIMD</t>
+  </si>
+  <si>
+    <t>vector architectures</t>
+  </si>
+  <si>
+    <t>SIMD extensions</t>
+  </si>
+  <si>
+    <t>Vector Architecture</t>
+  </si>
+  <si>
+    <t>Advanced version of MIPS</t>
+  </si>
+  <si>
+    <t>instead of having 32 bit register, we will have 64 * 64 bit register</t>
+  </si>
+  <si>
+    <t>Basic Ideas:</t>
+  </si>
+  <si>
+    <t>read sets of data elemetns into vector registers</t>
+  </si>
+  <si>
+    <t>operate on those registers</t>
+  </si>
+  <si>
+    <t>disperse the resutls back into memory</t>
+  </si>
+  <si>
+    <t>oldest &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Registers are controlled by compiler</t>
+  </si>
+  <si>
+    <t>should be smart enough to hide memroy latency</t>
+  </si>
+  <si>
+    <t>so it will leverage memory bandwith</t>
+  </si>
+  <si>
+    <t>compiler should translate c++ code for example to vector based code</t>
+  </si>
+  <si>
+    <t>VMIPS</t>
+  </si>
+  <si>
+    <t>vector registers</t>
+  </si>
+  <si>
+    <t>64 * 64 (two dimensions)</t>
+  </si>
+  <si>
+    <t>in addition to these, still have 32 point (scalar) registers</t>
+  </si>
+  <si>
+    <t>Chimes</t>
+  </si>
+  <si>
+    <t>sequences with RAW dependency hazards can be in the same convoy via chaining</t>
+  </si>
+  <si>
+    <t>within one convoy, apply everything we've already learned</t>
+  </si>
+  <si>
+    <t>but now must check across convoys as well</t>
+  </si>
+  <si>
+    <t>convoys can/should be running parallel</t>
+  </si>
+  <si>
+    <t>Need multiple lanes (buses)</t>
+  </si>
+  <si>
+    <t>load all data to a single dedicated bus</t>
+  </si>
+  <si>
+    <t>do not think about loading/storing data, just add move forward</t>
+  </si>
+  <si>
+    <t>Vector Length Register</t>
+  </si>
+  <si>
+    <t>how much do you want to process so you don't just go until vector is empty</t>
+  </si>
+  <si>
+    <t>Mask out unnecessary data</t>
+  </si>
+  <si>
+    <t>wastes time if you process</t>
+  </si>
+  <si>
+    <t>use vector mask register to "disable" elements that may cause a problem</t>
+  </si>
+  <si>
+    <t>things that are zero for example</t>
+  </si>
+  <si>
+    <t>Best case scenario would be a bus for each word</t>
+  </si>
+  <si>
+    <t>obviously impossible</t>
+  </si>
+  <si>
+    <t>Sparse Matrices</t>
+  </si>
+  <si>
+    <t>only determine the part of the matrix that is used</t>
+  </si>
+  <si>
+    <t>in a graph, most of the elements are zero/not used</t>
+  </si>
+  <si>
+    <t>can use a mask</t>
+  </si>
+  <si>
+    <t>SIMD Extensions</t>
+  </si>
+  <si>
+    <t>Media applications</t>
+  </si>
+  <si>
+    <t>Limitaionts, compared to vector instructions</t>
+  </si>
+  <si>
+    <t>num of data operatnds encoded into op code</t>
+  </si>
+  <si>
+    <t>no sophisctiaced addressing modes</t>
+  </si>
+  <si>
+    <t>Instructions are huge because operand is inside instruction</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>Heterogenous execution model</t>
+  </si>
+  <si>
+    <t>CPU is the host, GPU is the device</t>
+  </si>
+  <si>
+    <t>Develop a c-like programming lnaguage for GPU</t>
+  </si>
+  <si>
+    <t>Unify all forms of GPU parallelism as CUDA thread</t>
+  </si>
+  <si>
+    <t>SIMT</t>
+  </si>
+  <si>
+    <t>programming is single instruction multiple thread</t>
+  </si>
+  <si>
+    <t>Threads and Blocks</t>
+  </si>
+  <si>
+    <t>After midterm</t>
+  </si>
+  <si>
+    <t>HW4</t>
+  </si>
+  <si>
+    <t>Post to course wall with team members</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Determine our own structure and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>goal</t>
+    </r>
+  </si>
+  <si>
+    <t>In report say how you installed SimpleScalar</t>
+  </si>
+  <si>
+    <t>we generate something like App A</t>
+  </si>
+  <si>
+    <t>run test benches with default source codes before changing codes</t>
+  </si>
+  <si>
+    <t>1 create team</t>
+  </si>
+  <si>
+    <t>2 install ss</t>
+  </si>
+  <si>
+    <t>3 run any testbench</t>
+  </si>
+  <si>
+    <t>4 pick a problem</t>
+  </si>
+  <si>
+    <t>5 implement problem (change source code)</t>
+  </si>
+  <si>
+    <t>6 write report</t>
+  </si>
+  <si>
+    <t>include a comparison</t>
+  </si>
+  <si>
+    <t>does not have to be good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instruction </t>
+  </si>
+  <si>
+    <t>Clock Cycles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add $s0, $0, $0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M </t>
+  </si>
+  <si>
+    <t>beq s0, s1, done</t>
+  </si>
+  <si>
+    <t>Lw t0, 0(s2)</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>Addi s2, s2, 4</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Add t0, t0, 5</t>
+  </si>
+  <si>
+    <t>Sw t0, 0(s4)</t>
+  </si>
+  <si>
+    <t>Addi s4, s4, 4</t>
+  </si>
+  <si>
+    <t>Addi, s0, s0, 1</t>
+  </si>
+  <si>
+    <t>J loop</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -658,16 +2485,50 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -675,11 +2536,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -688,6 +2634,58 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,6 +2787,908 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>65750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0141888D-A288-4133-85A4-8EB92AE92C23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7734301" y="7153275"/>
+          <a:ext cx="4476750" cy="2056475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>180575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>151899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89C420D-3F14-4A29-9645-D02EF87F150C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876925" y="12182075"/>
+          <a:ext cx="5581650" cy="2257324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C53036-8806-4796-954D-6A42B9DAED0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5953125" y="18973800"/>
+          <a:ext cx="781050" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8BE6E55-F40C-4972-B955-5F3E093F4972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14268450" y="18526125"/>
+          <a:ext cx="0" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45ADFC05-4A25-4FB9-B62A-C90FDB047151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086350" y="21821775"/>
+          <a:ext cx="352425" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF99A93-253D-40B0-AD87-86A375AC38DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5172075" y="23469600"/>
+          <a:ext cx="0" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A311FF8-EE63-48B1-BD90-020BC9DE583D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9153525" y="23507700"/>
+          <a:ext cx="247650" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DFDDB63-4087-41D8-8BFD-D4A1162BD9EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9382125" y="24469725"/>
+          <a:ext cx="352425" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EDBB2E0-A38C-4A6E-82AA-4AF5F527DD09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7315200" y="5962650"/>
+          <a:ext cx="523876" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E30BA75-20CF-48F2-853E-5EE086061544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11811000" y="6010275"/>
+          <a:ext cx="381000" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{254593A1-1484-49B4-AABB-2268F3C9A0B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="8010524"/>
+          <a:ext cx="2543175" cy="1706255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA01F2F-66EB-4623-8D62-7DCA7F7ACB75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="3276600"/>
+          <a:ext cx="266700" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571FD054-C6D0-4E96-B4D1-BB87AD735633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="4324350"/>
+          <a:ext cx="142875" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>116931</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>43911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D634F3E-6639-45C3-A50B-DAD0DFA4A29F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4993731" y="3657600"/>
+          <a:ext cx="4245519" cy="2672811"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>309409</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>8747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8193205E-70BB-4A0A-8F9C-57C330E7A8E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048251" y="6496050"/>
+          <a:ext cx="5014758" cy="3037697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>306707</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>31861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36042606-830D-4609-B1A9-465775241498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10669907" y="6791325"/>
+          <a:ext cx="6198868" cy="4670536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>502404</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>52692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>8668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C27D54-F18E-47A8-9236-F1073F019E7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10865604" y="11673192"/>
+          <a:ext cx="5955546" cy="4527976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>282863</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>142200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B891327A-3983-4F6D-985E-87D28429CDE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5429250" y="12801599"/>
+          <a:ext cx="5216813" cy="2961601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1345,6 +4245,1074 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959F3DDE-A25C-494B-B02D-2CBB55C01AF8}">
+  <dimension ref="B2:Z112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>490</v>
+      </c>
+      <c r="M54">
+        <f>0.2*115</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F55" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="I55" t="s">
+        <v>488</v>
+      </c>
+      <c r="M55">
+        <f>0.5*24</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D57" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P60" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E72" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="82" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="83" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="84" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="86" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="87" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="88" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z88">
+        <f>0.98*15</f>
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="89" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="90" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="N90" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="91" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="92" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>517</v>
+      </c>
+      <c r="F92" t="s">
+        <v>521</v>
+      </c>
+      <c r="O92">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="P92">
+        <f>1-O92</f>
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="S92">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T92">
+        <f>1-S92</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="V92">
+        <v>0.85</v>
+      </c>
+      <c r="W92">
+        <f>1-V92</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>518</v>
+      </c>
+      <c r="P93">
+        <f>O92*20</f>
+        <v>0.112</v>
+      </c>
+      <c r="S93">
+        <f>S92*20</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>519</v>
+      </c>
+      <c r="P94">
+        <f>SUM(P92:P93)</f>
+        <v>1.1064000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>520</v>
+      </c>
+      <c r="F95" t="s">
+        <v>522</v>
+      </c>
+      <c r="U95">
+        <f>V95*T92</f>
+        <v>1.1327499999999999</v>
+      </c>
+      <c r="V95">
+        <f>W95+V92</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="W95">
+        <f>W92*2</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>523</v>
+      </c>
+      <c r="U97">
+        <f>U95+S93</f>
+        <v>1.43275</v>
+      </c>
+    </row>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>525</v>
+      </c>
+      <c r="N99" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>526</v>
+      </c>
+      <c r="F100" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>527</v>
+      </c>
+      <c r="S101">
+        <v>1.5946999999999999E-2</v>
+      </c>
+      <c r="T101">
+        <f>1-S101</f>
+        <v>0.98405299999999996</v>
+      </c>
+      <c r="V101">
+        <v>0.85</v>
+      </c>
+      <c r="W101">
+        <f>1-V101</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="S102">
+        <f>S101*20</f>
+        <v>0.31894</v>
+      </c>
+    </row>
+    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B103" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>530</v>
+      </c>
+      <c r="U104">
+        <f>V104*T101</f>
+        <v>1.1316609499999999</v>
+      </c>
+      <c r="V104">
+        <f>W104+V101</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="W104">
+        <f>W101*2</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>531</v>
+      </c>
+      <c r="U106">
+        <f>U104+S102</f>
+        <v>1.4506009499999999</v>
+      </c>
+    </row>
+    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>534</v>
+      </c>
+      <c r="R110" t="s">
+        <v>537</v>
+      </c>
+      <c r="T110">
+        <f>10 + 100</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>535</v>
+      </c>
+      <c r="R111" t="s">
+        <v>538</v>
+      </c>
+      <c r="T111">
+        <f>T110*0.04</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U111">
+        <f>T111+1</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150EA7EC-3B06-482B-8385-A9CA1140B417}">
+  <dimension ref="A3:E113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>570</v>
+      </c>
+      <c r="D26" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D95" s="13" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>627</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M35"/>
@@ -1647,8 +5615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C055D0AC-AF3F-4150-9570-0AB1070922E3}">
   <dimension ref="B3:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,7 +5899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F15D571-48C6-4806-9FAF-20D9AFAE5538}">
   <dimension ref="B1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -2041,4 +6009,3480 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8742F395-CBDF-4A24-BDFC-381F5A6BE4EB}">
+  <dimension ref="A2:AE130"/>
+  <sheetViews>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="4.42578125" customWidth="1"/>
+    <col min="17" max="31" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="P10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q13" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2</v>
+      </c>
+      <c r="S14" s="3">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
+        <v>6</v>
+      </c>
+      <c r="W14" s="3">
+        <v>7</v>
+      </c>
+      <c r="X14" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P16" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>165</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3">
+        <v>2</v>
+      </c>
+      <c r="S21" s="3">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
+        <v>6</v>
+      </c>
+      <c r="W21" s="3">
+        <v>7</v>
+      </c>
+      <c r="X21" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P23" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q27" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>176</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3">
+        <v>1</v>
+      </c>
+      <c r="R28" s="3">
+        <v>2</v>
+      </c>
+      <c r="S28" s="3">
+        <v>3</v>
+      </c>
+      <c r="T28" s="3">
+        <v>4</v>
+      </c>
+      <c r="U28" s="3">
+        <v>5</v>
+      </c>
+      <c r="V28" s="3">
+        <v>6</v>
+      </c>
+      <c r="W28" s="3">
+        <v>7</v>
+      </c>
+      <c r="X28" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>11</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>12</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>13</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>14</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>250</v>
+      </c>
+      <c r="R29" t="s">
+        <v>251</v>
+      </c>
+      <c r="S29" t="s">
+        <v>252</v>
+      </c>
+      <c r="T29" t="s">
+        <v>253</v>
+      </c>
+      <c r="U29" t="s">
+        <v>254</v>
+      </c>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>178</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" t="s">
+        <v>250</v>
+      </c>
+      <c r="W30" t="s">
+        <v>251</v>
+      </c>
+      <c r="X30" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>179</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>182</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3">
+        <v>1</v>
+      </c>
+      <c r="R34" s="3">
+        <v>2</v>
+      </c>
+      <c r="S34" s="3">
+        <v>3</v>
+      </c>
+      <c r="T34" s="3">
+        <v>4</v>
+      </c>
+      <c r="U34" s="3">
+        <v>5</v>
+      </c>
+      <c r="V34" s="3">
+        <v>6</v>
+      </c>
+      <c r="W34" s="3">
+        <v>7</v>
+      </c>
+      <c r="X34" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>11</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>12</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>13</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>14</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P35" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>250</v>
+      </c>
+      <c r="R35" t="s">
+        <v>251</v>
+      </c>
+      <c r="S35" t="s">
+        <v>252</v>
+      </c>
+      <c r="T35" t="s">
+        <v>253</v>
+      </c>
+      <c r="U35" t="s">
+        <v>254</v>
+      </c>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>192</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q36" s="3"/>
+      <c r="R36" t="s">
+        <v>250</v>
+      </c>
+      <c r="S36" t="s">
+        <v>251</v>
+      </c>
+      <c r="T36" t="s">
+        <v>252</v>
+      </c>
+      <c r="U36" t="s">
+        <v>253</v>
+      </c>
+      <c r="V36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>183</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D44" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>223</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>224</v>
+      </c>
+      <c r="L82" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>225</v>
+      </c>
+      <c r="K83" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>226</v>
+      </c>
+      <c r="K84" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>227</v>
+      </c>
+      <c r="N85" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>228</v>
+      </c>
+      <c r="M86" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>229</v>
+      </c>
+      <c r="G87" t="s">
+        <v>230</v>
+      </c>
+      <c r="K87" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="H91" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>262</v>
+      </c>
+      <c r="T97" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>268</v>
+      </c>
+      <c r="T98" t="s">
+        <v>250</v>
+      </c>
+      <c r="U98" t="s">
+        <v>251</v>
+      </c>
+      <c r="V98" t="s">
+        <v>252</v>
+      </c>
+      <c r="W98" t="s">
+        <v>253</v>
+      </c>
+      <c r="X98" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>246</v>
+      </c>
+      <c r="H99" t="s">
+        <v>250</v>
+      </c>
+      <c r="I99" t="s">
+        <v>251</v>
+      </c>
+      <c r="J99" t="s">
+        <v>252</v>
+      </c>
+      <c r="K99" t="s">
+        <v>253</v>
+      </c>
+      <c r="L99" t="s">
+        <v>254</v>
+      </c>
+      <c r="U99" t="s">
+        <v>250</v>
+      </c>
+      <c r="V99" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="W99" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="X99" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>255</v>
+      </c>
+      <c r="E100" t="s">
+        <v>240</v>
+      </c>
+      <c r="H100" t="s">
+        <v>257</v>
+      </c>
+      <c r="I100" t="s">
+        <v>257</v>
+      </c>
+      <c r="J100" t="s">
+        <v>257</v>
+      </c>
+      <c r="K100" t="s">
+        <v>257</v>
+      </c>
+      <c r="L100" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>241</v>
+      </c>
+      <c r="I101" t="s">
+        <v>257</v>
+      </c>
+      <c r="J101" t="s">
+        <v>258</v>
+      </c>
+      <c r="K101" t="s">
+        <v>257</v>
+      </c>
+      <c r="L101" t="s">
+        <v>257</v>
+      </c>
+      <c r="M101" t="s">
+        <v>257</v>
+      </c>
+      <c r="N101" t="s">
+        <v>260</v>
+      </c>
+      <c r="O101" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D106" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E115" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="119" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>240</v>
+      </c>
+      <c r="G120" t="s">
+        <v>250</v>
+      </c>
+      <c r="H120" t="s">
+        <v>251</v>
+      </c>
+      <c r="I120" t="s">
+        <v>252</v>
+      </c>
+      <c r="J120" t="s">
+        <v>253</v>
+      </c>
+      <c r="K120" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>241</v>
+      </c>
+      <c r="H121" t="s">
+        <v>250</v>
+      </c>
+      <c r="I121" t="s">
+        <v>251</v>
+      </c>
+      <c r="J121" t="s">
+        <v>252</v>
+      </c>
+      <c r="K121" t="s">
+        <v>253</v>
+      </c>
+      <c r="L121" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="123" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>276</v>
+      </c>
+      <c r="F123" t="s">
+        <v>279</v>
+      </c>
+      <c r="M123" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="124" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B124" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C124" t="s">
+        <v>277</v>
+      </c>
+      <c r="E124" t="s">
+        <v>250</v>
+      </c>
+      <c r="F124" t="s">
+        <v>251</v>
+      </c>
+      <c r="G124" t="s">
+        <v>252</v>
+      </c>
+      <c r="H124" t="s">
+        <v>253</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M124" t="s">
+        <v>250</v>
+      </c>
+      <c r="N124" t="s">
+        <v>251</v>
+      </c>
+      <c r="O124" t="s">
+        <v>252</v>
+      </c>
+      <c r="P124" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q124" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="S124" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="125" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>278</v>
+      </c>
+      <c r="F125" t="s">
+        <v>250</v>
+      </c>
+      <c r="G125" t="s">
+        <v>264</v>
+      </c>
+      <c r="H125" t="s">
+        <v>264</v>
+      </c>
+      <c r="I125" t="s">
+        <v>251</v>
+      </c>
+      <c r="J125" t="s">
+        <v>252</v>
+      </c>
+      <c r="K125" t="s">
+        <v>253</v>
+      </c>
+      <c r="L125" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="N125" t="s">
+        <v>250</v>
+      </c>
+      <c r="O125" t="s">
+        <v>251</v>
+      </c>
+      <c r="P125" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>253</v>
+      </c>
+      <c r="R125" t="s">
+        <v>254</v>
+      </c>
+      <c r="S125" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="126" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>287</v>
+      </c>
+      <c r="M129" t="s">
+        <v>250</v>
+      </c>
+      <c r="N129" t="s">
+        <v>251</v>
+      </c>
+      <c r="O129" t="s">
+        <v>252</v>
+      </c>
+      <c r="P129" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q129" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N130" t="s">
+        <v>250</v>
+      </c>
+      <c r="O130" t="s">
+        <v>251</v>
+      </c>
+      <c r="P130" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>252</v>
+      </c>
+      <c r="R130" t="s">
+        <v>253</v>
+      </c>
+      <c r="S130" t="s">
+        <v>254</v>
+      </c>
+      <c r="T130" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74899A1D-49D4-4464-A7E2-C717614D337B}">
+  <dimension ref="A3:W76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J6" t="s">
+        <v>304</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="M6" t="s">
+        <v>306</v>
+      </c>
+      <c r="N6" t="s">
+        <v>302</v>
+      </c>
+      <c r="O6" t="s">
+        <v>303</v>
+      </c>
+      <c r="P6" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>304</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="J7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L7" t="s">
+        <v>305</v>
+      </c>
+      <c r="O7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>307</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="S7" t="s">
+        <v>257</v>
+      </c>
+      <c r="T7" t="s">
+        <v>304</v>
+      </c>
+      <c r="U7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H22" t="s">
+        <v>302</v>
+      </c>
+      <c r="I22" t="s">
+        <v>303</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="K22" t="s">
+        <v>304</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>309</v>
+      </c>
+      <c r="I23" t="s">
+        <v>302</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="L23" t="s">
+        <v>304</v>
+      </c>
+      <c r="M23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>319</v>
+      </c>
+      <c r="F31" t="s">
+        <v>316</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P31" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>320</v>
+      </c>
+      <c r="F32" t="s">
+        <v>317</v>
+      </c>
+      <c r="J32" t="s">
+        <v>302</v>
+      </c>
+      <c r="K32" t="s">
+        <v>303</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>302</v>
+      </c>
+      <c r="R32" t="s">
+        <v>303</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="T32" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>280</v>
+      </c>
+      <c r="F33" t="s">
+        <v>318</v>
+      </c>
+      <c r="K33" t="s">
+        <v>302</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="N33" t="s">
+        <v>304</v>
+      </c>
+      <c r="O33" t="s">
+        <v>305</v>
+      </c>
+      <c r="R33" t="s">
+        <v>302</v>
+      </c>
+      <c r="S33" t="s">
+        <v>303</v>
+      </c>
+      <c r="T33" t="s">
+        <v>307</v>
+      </c>
+      <c r="U33" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="V33" t="s">
+        <v>304</v>
+      </c>
+      <c r="W33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>325</v>
+      </c>
+      <c r="F36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>326</v>
+      </c>
+      <c r="F37" t="s">
+        <v>323</v>
+      </c>
+      <c r="H37" t="s">
+        <v>302</v>
+      </c>
+      <c r="I37" t="s">
+        <v>303</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="K37" t="s">
+        <v>304</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>328</v>
+      </c>
+      <c r="F38" t="s">
+        <v>324</v>
+      </c>
+      <c r="I38" t="s">
+        <v>302</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="L38" t="s">
+        <v>304</v>
+      </c>
+      <c r="M38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>329</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C46" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C55210-7128-4BE8-B9D7-03681E8AD1B5}">
+  <dimension ref="A3:V79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="W43" sqref="W43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+      <c r="D15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>364</v>
+      </c>
+      <c r="E17" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="M31" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>379</v>
+      </c>
+      <c r="D32" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>385</v>
+      </c>
+      <c r="D38" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>387</v>
+      </c>
+      <c r="H40" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f>2^9</f>
+        <v>512</v>
+      </c>
+      <c r="I42" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>392</v>
+      </c>
+      <c r="D44" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>398</v>
+      </c>
+      <c r="D50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>403</v>
+      </c>
+      <c r="G53" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>407</v>
+      </c>
+      <c r="G56" t="s">
+        <v>408</v>
+      </c>
+      <c r="P56" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>403</v>
+      </c>
+      <c r="G61" t="s">
+        <v>413</v>
+      </c>
+      <c r="S61">
+        <f>0.2*98</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T61">
+        <f>S61+15</f>
+        <v>34.6</v>
+      </c>
+      <c r="U61">
+        <f>T61*0.02</f>
+        <v>0.69200000000000006</v>
+      </c>
+      <c r="V61">
+        <f>U61+1</f>
+        <v>1.6920000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>407</v>
+      </c>
+      <c r="G62" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>415</v>
+      </c>
+      <c r="S63">
+        <f>0.5*24</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>438</v>
+      </c>
+      <c r="D66" t="s">
+        <v>417</v>
+      </c>
+      <c r="M66" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>439</v>
+      </c>
+      <c r="D67" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I69" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>398</v>
+      </c>
+      <c r="D70" t="s">
+        <v>420</v>
+      </c>
+      <c r="G70" t="s">
+        <v>435</v>
+      </c>
+      <c r="H70" t="s">
+        <v>436</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="S70" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>398</v>
+      </c>
+      <c r="D71" t="s">
+        <v>420</v>
+      </c>
+      <c r="H71" t="s">
+        <v>429</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3">
+        <v>200</v>
+      </c>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3">
+        <v>200</v>
+      </c>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="S71" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>431</v>
+      </c>
+      <c r="D72" t="s">
+        <v>421</v>
+      </c>
+      <c r="H72" t="s">
+        <v>437</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>398</v>
+      </c>
+      <c r="D73" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>398</v>
+      </c>
+      <c r="D74" t="s">
+        <v>420</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>435</v>
+      </c>
+      <c r="H75" t="s">
+        <v>436</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>429</v>
+      </c>
+      <c r="I76" s="3">
+        <v>100</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3">
+        <v>100</v>
+      </c>
+      <c r="L76" s="3"/>
+      <c r="M76" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>437</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M79" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5622EF91-9C89-4E44-B44B-5640A029884A}">
+  <dimension ref="A1:AE25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="4" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="16" width="4.140625" customWidth="1"/>
+    <col min="17" max="17" width="3" customWidth="1"/>
+    <col min="18" max="24" width="3.140625" customWidth="1"/>
+    <col min="25" max="25" width="2.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="25"/>
+    </row>
+    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19">
+        <v>3</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="19">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="19">
+        <v>5</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="18">
+        <v>6</v>
+      </c>
+      <c r="K2" s="18">
+        <v>7</v>
+      </c>
+      <c r="L2" s="18">
+        <v>8</v>
+      </c>
+      <c r="M2" s="18">
+        <v>9</v>
+      </c>
+      <c r="N2" s="18">
+        <v>10</v>
+      </c>
+      <c r="O2" s="18">
+        <v>11</v>
+      </c>
+      <c r="P2" s="18">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>13</v>
+      </c>
+      <c r="R2" s="18">
+        <v>14</v>
+      </c>
+      <c r="S2" s="18">
+        <v>15</v>
+      </c>
+      <c r="T2" s="18">
+        <v>16</v>
+      </c>
+      <c r="U2" s="18">
+        <v>17</v>
+      </c>
+      <c r="V2" s="18">
+        <v>18</v>
+      </c>
+      <c r="W2" s="18">
+        <v>19</v>
+      </c>
+      <c r="X2" s="18">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+    </row>
+    <row r="4" spans="1:31" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>635</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="AE4" s="26" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="AE5" s="26" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="AE6" s="26" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="AE7" s="26" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="AE8" s="26" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="AE9" s="26" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="V10" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="W10" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="AE10" s="26" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="V11" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="W11" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="X11" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y11" s="18"/>
+      <c r="AE11" s="26" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE12" s="26" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="25"/>
+    </row>
+    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="18">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18">
+        <v>2</v>
+      </c>
+      <c r="D16" s="19">
+        <v>3</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="19">
+        <v>4</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19">
+        <v>5</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="18">
+        <v>6</v>
+      </c>
+      <c r="K16" s="18">
+        <v>7</v>
+      </c>
+      <c r="L16" s="18">
+        <v>8</v>
+      </c>
+      <c r="M16" s="18">
+        <v>9</v>
+      </c>
+      <c r="N16" s="18">
+        <v>10</v>
+      </c>
+      <c r="O16" s="18">
+        <v>11</v>
+      </c>
+      <c r="P16" s="18">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>13</v>
+      </c>
+      <c r="R16" s="18">
+        <v>14</v>
+      </c>
+      <c r="S16" s="18">
+        <v>15</v>
+      </c>
+      <c r="T16" s="18">
+        <v>16</v>
+      </c>
+      <c r="U16" s="18">
+        <v>17</v>
+      </c>
+      <c r="V16" s="18">
+        <v>18</v>
+      </c>
+      <c r="W16" s="18">
+        <v>19</v>
+      </c>
+      <c r="X16" s="18">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>635</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="P24" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q24" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="R24" s="21"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="R25" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="67">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:X1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/CIS655/CIS655.xlsx
+++ b/CIS655/CIS655.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captain\Syracuse\Syracuse\CIS655\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7DAD10-4E61-4139-AF1D-C28D1D7D67CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB3D1AA-90FB-43FA-98CB-E7FE82E8F946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="587" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Live 1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
     <sheet name="Live 5" sheetId="9" r:id="rId10"/>
     <sheet name="Live 6" sheetId="10" r:id="rId11"/>
+    <sheet name="Live 8" sheetId="12" r:id="rId12"/>
+    <sheet name="Live 9" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="803">
   <si>
     <t>TRY TO FIND A PAPER ON MEMORY, DO NOT FOCUS ON CPU</t>
   </si>
@@ -2439,6 +2441,474 @@
   </si>
   <si>
     <t>EX</t>
+  </si>
+  <si>
+    <t>10-11 slides</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>Two final exams</t>
+  </si>
+  <si>
+    <t>each is 10%</t>
+  </si>
+  <si>
+    <t>one is standard/nice/easy</t>
+  </si>
+  <si>
+    <t>read and summarize</t>
+  </si>
+  <si>
+    <t>second will be similar to HW2 and HW4</t>
+  </si>
+  <si>
+    <t>Assigned most likely next week</t>
+  </si>
+  <si>
+    <t>Midterm review</t>
+  </si>
+  <si>
+    <t>s0 and s0: data dependecy</t>
+  </si>
+  <si>
+    <t>t0 and t0: name dependency</t>
+  </si>
+  <si>
+    <t>the add before the loop has an issue with beq in loop</t>
+  </si>
+  <si>
+    <t>need two stalls for beq</t>
+  </si>
+  <si>
+    <t>no need for stall at addi after lw (load word, not store word)</t>
+  </si>
+  <si>
+    <t>needs one stall</t>
+  </si>
+  <si>
+    <t>instruction 5 needs stall: it's from instruction 3 (lw)</t>
+  </si>
+  <si>
+    <t>even with forwarding unit, no stall cycles</t>
+  </si>
+  <si>
+    <t>principle of locality</t>
+  </si>
+  <si>
+    <t>each block has two words</t>
+  </si>
+  <si>
+    <t>need to show mapping</t>
+  </si>
+  <si>
+    <t>need to make copies of block (two words) not just single word</t>
+  </si>
+  <si>
+    <t>once cache is full, we use LRU</t>
+  </si>
+  <si>
+    <t>should add one layer of optimization</t>
+  </si>
+  <si>
+    <t>load load load/add add add/store store store</t>
+  </si>
+  <si>
+    <t>AMAT Inst and AMAT data</t>
+  </si>
+  <si>
+    <t>ILP</t>
+  </si>
+  <si>
+    <t>thread: process with its own instructions and data</t>
+  </si>
+  <si>
+    <t>each thread has all the state data</t>
+  </si>
+  <si>
+    <t>multithreading</t>
+  </si>
+  <si>
+    <t>processor must duplicate indpendent state for each thread</t>
+  </si>
+  <si>
+    <t>Corse-grained multithreading</t>
+  </si>
+  <si>
+    <t>only switch threads if there is a real need to switch</t>
+  </si>
+  <si>
+    <t>fine grained</t>
+  </si>
+  <si>
+    <t>just switch every nanosecond (or similar)</t>
+  </si>
+  <si>
+    <t>no need to a do a fast switch since it only occurs when there is a real issue (page fault)</t>
+  </si>
+  <si>
+    <t>Parallel Architecture</t>
+  </si>
+  <si>
+    <t>message passing</t>
+  </si>
+  <si>
+    <t>2. message passing</t>
+  </si>
+  <si>
+    <t>1. shared address space</t>
+  </si>
+  <si>
+    <t>shared address space</t>
+  </si>
+  <si>
+    <t>each process can have a shared address space that is seen/accessable by other processes</t>
+  </si>
+  <si>
+    <t>Shared space is physically in main memory and all procesors can access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">memory controllers have to be designed to manage multiple </t>
+  </si>
+  <si>
+    <t>add synchronization via send and receive</t>
+  </si>
+  <si>
+    <t>point to point communication</t>
+  </si>
+  <si>
+    <t>Types of units</t>
+  </si>
+  <si>
+    <t>symmetric multiprocessors (SMP)</t>
+  </si>
+  <si>
+    <t>small number of cores, simple programming, uniform memory access</t>
+  </si>
+  <si>
+    <t>processes pay the same cost/time to access the memory</t>
+  </si>
+  <si>
+    <t>no inconsistencies, only one copy of the data</t>
+  </si>
+  <si>
+    <t>distributed</t>
+  </si>
+  <si>
+    <t>memory distributed among processors</t>
+  </si>
+  <si>
+    <t>may get inconsistent data</t>
+  </si>
+  <si>
+    <t>non-uniform memory access: process clsoe to memeory will take less time to access the memory</t>
+  </si>
+  <si>
+    <t>processors connected via direct (switched) and non-direct (multi-hop) interconnection networks</t>
+  </si>
+  <si>
+    <t>Cache coherence</t>
+  </si>
+  <si>
+    <t>snooping vs. directory based</t>
+  </si>
+  <si>
+    <t>MSI Model</t>
+  </si>
+  <si>
+    <t>block (not word)</t>
+  </si>
+  <si>
+    <t>every block has one label (state)</t>
+  </si>
+  <si>
+    <t>either M, S, or I</t>
+  </si>
+  <si>
+    <t>I: either you don't have it, or you have an old version</t>
+  </si>
+  <si>
+    <t>Modified shared invald</t>
+  </si>
+  <si>
+    <t>S: only read it/accessed it, didn't make it dirty OR you can share this block with other processors</t>
+  </si>
+  <si>
+    <t>M: modified/mine: I just changed its value, its dirty</t>
+  </si>
+  <si>
+    <t>forces an S to I</t>
+  </si>
+  <si>
+    <t>snooping</t>
+  </si>
+  <si>
+    <t>shared block</t>
+  </si>
+  <si>
+    <t>local read: still S</t>
+  </si>
+  <si>
+    <t>Now block is modified</t>
+  </si>
+  <si>
+    <t>I did a local read AFTER I modified</t>
+  </si>
+  <si>
+    <t>still mine, still M</t>
+  </si>
+  <si>
+    <t>Now block is just modified by me: still M</t>
+  </si>
+  <si>
+    <t>now, what if block was I for me</t>
+  </si>
+  <si>
+    <t>I do a local write: it becomes mine (M)</t>
+  </si>
+  <si>
+    <t>while I was snooping in the bus, someone wrote to it (made it dirty)</t>
+  </si>
+  <si>
+    <t>now it's invalid (I)</t>
+  </si>
+  <si>
+    <t>now it was mine, while I was snooping, found a read request (someone else just did a local read)</t>
+  </si>
+  <si>
+    <t>now two people have S (no longer mine, it's now S for me and S for other)</t>
+  </si>
+  <si>
+    <t>Now it was not mine, it was an I, and I did a local read:</t>
+  </si>
+  <si>
+    <t>goes to S (shared)</t>
+  </si>
+  <si>
+    <t>even if you're not sharing it, but you don't mind that it is S</t>
+  </si>
+  <si>
+    <t>now it was shared, and I'm snooping on the bus, and I found a write request</t>
+  </si>
+  <si>
+    <t>my copy is now I</t>
+  </si>
+  <si>
+    <t>two were sharing, and a third writes</t>
+  </si>
+  <si>
+    <t>the copies are I</t>
+  </si>
+  <si>
+    <t>now it was shared, snooping on the bus, and found a read request</t>
+  </si>
+  <si>
+    <t>still S</t>
+  </si>
+  <si>
+    <t>now it was shared, and I did a local write</t>
+  </si>
+  <si>
+    <t>mine is M</t>
+  </si>
+  <si>
+    <t>other S is now I</t>
+  </si>
+  <si>
+    <t>now it's invalid, and while snooping, I found write or read</t>
+  </si>
+  <si>
+    <t>now it stays as I</t>
+  </si>
+  <si>
+    <t>if others have a shared block and modify/read/write/etc, I don't care</t>
+  </si>
+  <si>
+    <t>Shared messages/network</t>
+  </si>
+  <si>
+    <t>Four major networking domains:</t>
+  </si>
+  <si>
+    <t>OCN: on-chip network</t>
+  </si>
+  <si>
+    <t>very small, ARM</t>
+  </si>
+  <si>
+    <t>system/storage area networks (SANs)</t>
+  </si>
+  <si>
+    <t>Local Area Network (LAN)</t>
+  </si>
+  <si>
+    <t>Wide area network (WAN)</t>
+  </si>
+  <si>
+    <t>interconnect autonomous computer systems, things like ethernet</t>
+  </si>
+  <si>
+    <t>systems distributed across the globe</t>
+  </si>
+  <si>
+    <t>multiple access network: cannot have a dedicated line to each user</t>
+  </si>
+  <si>
+    <t>Final exam posted</t>
+  </si>
+  <si>
+    <t>Takehome</t>
+  </si>
+  <si>
+    <t>no presentation in front of professor</t>
+  </si>
+  <si>
+    <t>do at at home and submit</t>
+  </si>
+  <si>
+    <t>Online:</t>
+  </si>
+  <si>
+    <t>going to present/defend in front of professor</t>
+  </si>
+  <si>
+    <t>Tuesday 9/15/2020 LIVE</t>
+  </si>
+  <si>
+    <t>10% of total grade</t>
+  </si>
+  <si>
+    <t>Saturday 9/12/2020 midnight (your time zone)</t>
+  </si>
+  <si>
+    <t>One single PDF</t>
+  </si>
+  <si>
+    <t>SUBMIT TO RIGHT PLACE</t>
+  </si>
+  <si>
+    <t>No programming</t>
+  </si>
+  <si>
+    <t>Just a proposal/essay/bullets</t>
+  </si>
+  <si>
+    <t>Application: can be virtual/fake, or practical. Doesn't matter</t>
+  </si>
+  <si>
+    <t>could be in the future</t>
+  </si>
+  <si>
+    <t>something like a calculator, embedded system (security system)</t>
+  </si>
+  <si>
+    <t>propose a name</t>
+  </si>
+  <si>
+    <t>internal hardware: alu, forwarding unit, registers, etc</t>
+  </si>
+  <si>
+    <t>In order to convince, the application has to make sense to the proposal</t>
+  </si>
+  <si>
+    <t>can't have a space shuttle with two registers</t>
+  </si>
+  <si>
+    <t>two bit registers can only have four registers (can't say two bits with 100 registers)</t>
+  </si>
+  <si>
+    <t>can say three registers each with 8 bits</t>
+  </si>
+  <si>
+    <t>Must explain WHY you chose what you chose</t>
+  </si>
+  <si>
+    <t>if support from interent, must reference/cite</t>
+  </si>
+  <si>
+    <t>REUSE ASSIGNMENT 2 if you want</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must defend, professor will ask questions, code must react </t>
+  </si>
+  <si>
+    <t>This is the officially reported final exam</t>
+  </si>
+  <si>
+    <t>PDF file including the code summary and screenshots of the output AND a zipped folder of the code</t>
+  </si>
+  <si>
+    <t>Any language you like</t>
+  </si>
+  <si>
+    <t>IF/ID/…</t>
+  </si>
+  <si>
+    <t>program will detect pipeline hazards</t>
+  </si>
+  <si>
+    <t>Accept a program (not just an instruction line!) written in MIPS</t>
+  </si>
+  <si>
+    <t>can read program anyway</t>
+  </si>
+  <si>
+    <t>Output needs to be printed (could be excel file, text file, console, etc.)</t>
+  </si>
+  <si>
+    <t>F-D-X-M-W</t>
+  </si>
+  <si>
+    <t>F-S-D-X-M-W</t>
+  </si>
+  <si>
+    <t>Three outputs needed</t>
+  </si>
+  <si>
+    <t>Add, subtract, load, store</t>
+  </si>
+  <si>
+    <t>input program is four lines or more</t>
+  </si>
+  <si>
+    <t>Challenge: professor will change the instructions</t>
+  </si>
+  <si>
+    <t>in the input program</t>
+  </si>
+  <si>
+    <t>can you make the r1 into r2? Can you make the load a store? Etc?</t>
+  </si>
+  <si>
+    <t>branch: extra credit</t>
+  </si>
+  <si>
+    <t>taken/not taken</t>
+  </si>
+  <si>
+    <t>prediction: super extra credit</t>
+  </si>
+  <si>
+    <t>Submit code/PDF before midngiht 9/12/2020 (Saturday), but can make some modifications in between</t>
+  </si>
+  <si>
+    <t>8 minutes for presentation next week</t>
+  </si>
+  <si>
+    <t>propose something?</t>
+  </si>
+  <si>
+    <t>demo?</t>
+  </si>
+  <si>
+    <t>is it your demo or you found online?</t>
+  </si>
+  <si>
+    <t>4 mins for presentation/4 mins demo</t>
+  </si>
+  <si>
+    <t>arrows from one stage to another, extra credit as well</t>
   </si>
 </sst>
 </file>
@@ -2625,7 +3095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2649,22 +3119,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2676,15 +3131,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3995,7 +4466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
@@ -4249,8 +4720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959F3DDE-A25C-494B-B02D-2CBB55C01AF8}">
   <dimension ref="B2:Z112"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4520,6 +4991,10 @@
     <row r="62" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>494</v>
+      </c>
+      <c r="L62">
+        <f>2^6</f>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="3:16" x14ac:dyDescent="0.25">
@@ -4853,7 +5328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150EA7EC-3B06-482B-8385-A9CA1140B417}">
   <dimension ref="A3:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
       <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
@@ -5305,6 +5780,878 @@
     <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
         <v>627</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBDF2FD-495D-48AA-8817-0752547087F2}">
+  <dimension ref="B3:F137"/>
+  <sheetViews>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="K113" sqref="K113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>403</v>
+      </c>
+      <c r="E22" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>704</v>
+      </c>
+      <c r="F91" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="133" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>740</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81141513-B09C-4073-8433-A46A20A7DC97}">
+  <dimension ref="B3:E74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="22" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="7" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="7" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="22" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="7" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -5615,8 +6962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C055D0AC-AF3F-4150-9570-0AB1070922E3}">
   <dimension ref="B3:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6015,8 +7362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8742F395-CBDF-4A24-BDFC-381F5A6BE4EB}">
   <dimension ref="A2:AE130"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="O109" sqref="O109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7357,7 +8704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74899A1D-49D4-4464-A7E2-C717614D337B}">
   <dimension ref="A3:W76"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
@@ -7881,8 +9228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C55210-7128-4BE8-B9D7-03681E8AD1B5}">
   <dimension ref="A3:V79"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="W43" sqref="W43"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="AA50" sqref="AA50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8468,510 +9815,510 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>628</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="25"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="19"/>
     </row>
     <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="18">
+      <c r="A2" s="20"/>
+      <c r="B2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="15">
         <v>2</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="27">
         <v>3</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19">
+      <c r="E2" s="28"/>
+      <c r="F2" s="27">
         <v>4</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="19">
+      <c r="G2" s="28"/>
+      <c r="H2" s="27">
         <v>5</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="18">
+      <c r="I2" s="28"/>
+      <c r="J2" s="15">
         <v>6</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="15">
         <v>7</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="15">
         <v>8</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="15">
         <v>9</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="15">
         <v>10</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="15">
         <v>11</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="15">
         <v>12</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="15">
         <v>13</v>
       </c>
-      <c r="R2" s="18">
+      <c r="R2" s="15">
         <v>14</v>
       </c>
-      <c r="S2" s="18">
+      <c r="S2" s="15">
         <v>15</v>
       </c>
-      <c r="T2" s="18">
+      <c r="T2" s="15">
         <v>16</v>
       </c>
-      <c r="U2" s="18">
+      <c r="U2" s="15">
         <v>17</v>
       </c>
-      <c r="V2" s="18">
+      <c r="V2" s="15">
         <v>18</v>
       </c>
-      <c r="W2" s="18">
+      <c r="W2" s="15">
         <v>19</v>
       </c>
-      <c r="X2" s="18">
+      <c r="X2" s="15">
         <v>20</v>
       </c>
-      <c r="Y2" s="18">
+      <c r="Y2" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="27" t="s">
         <v>634</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
     </row>
     <row r="4" spans="1:31" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="27" t="s">
         <v>645</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="18" t="s">
+      <c r="I4" s="28"/>
+      <c r="J4" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="AE4" s="26" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="AE4" s="20" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="20" t="s">
         <v>636</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="19" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="18" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="AE5" s="26" t="s">
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="AE5" s="20" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="20" t="s">
         <v>638</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="AE6" s="26" t="s">
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="AE6" s="20" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="20" t="s">
         <v>640</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="Q7" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="AE7" s="26" t="s">
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="AE7" s="20" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="20" t="s">
         <v>641</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="Q8" s="18" t="s">
+      <c r="Q8" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="R8" s="18" t="s">
+      <c r="R8" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="S8" s="18" t="s">
+      <c r="S8" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="AE8" s="26" t="s">
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="AE8" s="20" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="20" t="s">
         <v>642</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="R9" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="T9" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="U9" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="V9" s="18" t="s">
+      <c r="V9" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="AE9" s="26" t="s">
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="AE9" s="20" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="T10" s="18" t="s">
+      <c r="T10" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="U10" s="18" t="s">
+      <c r="U10" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="V10" s="18" t="s">
+      <c r="V10" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="W10" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="AE10" s="26" t="s">
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="AE10" s="20" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="20" t="s">
         <v>644</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="U11" s="18" t="s">
+      <c r="U11" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="V11" s="18" t="s">
+      <c r="V11" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="W11" s="18" t="s">
+      <c r="W11" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="X11" s="18" t="s">
+      <c r="X11" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="Y11" s="18"/>
-      <c r="AE11" s="26" t="s">
+      <c r="Y11" s="15"/>
+      <c r="AE11" s="20" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE12" s="26" t="s">
+      <c r="AE12" s="20" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="18" t="s">
         <v>628</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="27"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -8987,429 +10334,429 @@
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
-      <c r="Y15" s="25"/>
+      <c r="Y15" s="19"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="18">
+      <c r="A16" s="20"/>
+      <c r="B16" s="15">
         <v>1</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="15">
         <v>2</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="27">
         <v>3</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="19">
+      <c r="E16" s="28"/>
+      <c r="F16" s="27">
         <v>4</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="19">
+      <c r="G16" s="28"/>
+      <c r="H16" s="27">
         <v>5</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="18">
+      <c r="I16" s="28"/>
+      <c r="J16" s="15">
         <v>6</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="15">
         <v>7</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="15">
         <v>8</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="15">
         <v>9</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="15">
         <v>10</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="15">
         <v>11</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="15">
         <v>12</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="15">
         <v>13</v>
       </c>
-      <c r="R16" s="18">
+      <c r="R16" s="15">
         <v>14</v>
       </c>
-      <c r="S16" s="18">
+      <c r="S16" s="15">
         <v>15</v>
       </c>
-      <c r="T16" s="18">
+      <c r="T16" s="15">
         <v>16</v>
       </c>
-      <c r="U16" s="18">
+      <c r="U16" s="15">
         <v>17</v>
       </c>
-      <c r="V16" s="18">
+      <c r="V16" s="15">
         <v>18</v>
       </c>
-      <c r="W16" s="18">
+      <c r="W16" s="15">
         <v>19</v>
       </c>
-      <c r="X16" s="18">
+      <c r="X16" s="15">
         <v>20</v>
       </c>
-      <c r="Y16" s="18">
+      <c r="Y16" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="27" t="s">
         <v>634</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="19" t="s">
+      <c r="G17" s="28"/>
+      <c r="H17" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="27" t="s">
         <v>645</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="28"/>
+      <c r="F18" s="27" t="s">
         <v>646</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="19" t="s">
+      <c r="G18" s="28"/>
+      <c r="H18" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="18" t="s">
+      <c r="I18" s="28"/>
+      <c r="J18" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="20" t="s">
         <v>636</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="19" t="s">
+      <c r="E19" s="28"/>
+      <c r="F19" s="27" t="s">
         <v>645</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="19" t="s">
+      <c r="G19" s="28"/>
+      <c r="H19" s="27" t="s">
         <v>646</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="18" t="s">
+      <c r="I19" s="28"/>
+      <c r="J19" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="20" t="s">
         <v>638</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="19" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="19" t="s">
+      <c r="G20" s="28"/>
+      <c r="H20" s="27" t="s">
         <v>645</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="18" t="s">
+      <c r="I20" s="28"/>
+      <c r="J20" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="L20" s="18" t="s">
+      <c r="L20" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="20" t="s">
         <v>640</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="19" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="18" t="s">
+      <c r="I21" s="28"/>
+      <c r="J21" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="L21" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="M21" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="20" t="s">
         <v>641</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="18" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="L22" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="20" t="s">
         <v>642</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="L23" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="M23" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="O23" s="18" t="s">
+      <c r="O23" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="P23" s="18" t="s">
+      <c r="P23" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="O24" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="P24" s="18" t="s">
+      <c r="P24" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="Q24" s="18" t="s">
+      <c r="Q24" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="R24" s="21"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="20" t="s">
         <v>644</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="O25" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="P25" s="18" t="s">
+      <c r="P25" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="Q25" s="18" t="s">
+      <c r="Q25" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="R25" s="18" t="s">
+      <c r="R25" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="67">
